--- a/gatewaySamplingFiles/Tasting-Recap.xlsx
+++ b/gatewaySamplingFiles/Tasting-Recap.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MIke/Desktop/GitProjects/Gateway/gatewaySamplingFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,9 +42,6 @@
   </si>
   <si>
     <t>End time:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drive time: </t>
   </si>
   <si>
     <t>Ice cost:</t>
@@ -71,6 +76,9 @@
   <si>
     <t>Tasting Info</t>
   </si>
+  <si>
+    <t xml:space="preserve">Drive time(One way): </t>
+  </si>
 </sst>
 </file>
 
@@ -91,12 +99,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,6 +129,7 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,6 +137,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -138,6 +150,7 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -397,6 +410,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,18 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -500,6 +513,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -828,10 +846,10 @@
   <dimension ref="A1:BR132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -842,18 +860,18 @@
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -902,16 +920,16 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
     </row>
-    <row r="2" spans="1:70">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -960,7 +978,7 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1018,23 +1036,23 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>16</v>
+    <row r="4" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="5"/>
       <c r="D4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1086,11 +1104,11 @@
       <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
     </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="5" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="12"/>
@@ -1149,11 +1167,11 @@
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
     </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="6" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="12"/>
@@ -1212,11 +1230,11 @@
       <c r="BC6" s="5"/>
       <c r="BD6" s="5"/>
     </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="7" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="12"/>
@@ -1275,11 +1293,11 @@
       <c r="BC7" s="5"/>
       <c r="BD7" s="5"/>
     </row>
-    <row r="8" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="8" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="12"/>
@@ -1338,11 +1356,11 @@
       <c r="BC8" s="5"/>
       <c r="BD8" s="5"/>
     </row>
-    <row r="9" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="9" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="12"/>
@@ -1401,11 +1419,11 @@
       <c r="BC9" s="5"/>
       <c r="BD9" s="5"/>
     </row>
-    <row r="10" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="10" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="12"/>
@@ -1464,11 +1482,11 @@
       <c r="BC10" s="5"/>
       <c r="BD10" s="5"/>
     </row>
-    <row r="11" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="11" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
       <c r="E11" s="13"/>
@@ -1541,15 +1559,15 @@
       <c r="BQ11" s="3"/>
       <c r="BR11" s="3"/>
     </row>
-    <row r="12" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="12" spans="1:70" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="15"/>
       <c r="E12" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="11">
         <f>SUM(F5:F11)</f>
@@ -1623,7 +1641,7 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1658,7 +1676,7 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:70" ht="10" customHeight="1">
+    <row r="14" spans="1:70" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1693,13 +1711,13 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:70" ht="26" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
+    <row r="15" spans="1:70" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1756,11 +1774,11 @@
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
     </row>
-    <row r="16" spans="1:70">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1817,11 +1835,11 @@
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
     </row>
-    <row r="17" spans="1:59">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1878,11 +1896,11 @@
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
     </row>
-    <row r="18" spans="1:59">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1939,11 +1957,11 @@
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
     </row>
-    <row r="19" spans="1:59">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2000,11 +2018,11 @@
       <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
     </row>
-    <row r="20" spans="1:59">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2061,11 +2079,11 @@
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
     </row>
-    <row r="21" spans="1:59">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2122,7 +2140,7 @@
       <c r="BF21" s="2"/>
       <c r="BG21" s="2"/>
     </row>
-    <row r="22" spans="1:59" ht="13" customHeight="1">
+    <row r="22" spans="1:59" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2183,13 +2201,13 @@
       <c r="BF22" s="2"/>
       <c r="BG22" s="2"/>
     </row>
-    <row r="23" spans="1:59" ht="33" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>15</v>
+    <row r="23" spans="1:59" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>14</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2246,11 +2264,11 @@
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
     </row>
-    <row r="24" spans="1:59">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2307,11 +2325,11 @@
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
     </row>
-    <row r="25" spans="1:59">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2368,11 +2386,11 @@
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
     </row>
-    <row r="26" spans="1:59">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2429,11 +2447,11 @@
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
     </row>
-    <row r="27" spans="1:59">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2490,11 +2508,11 @@
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
     </row>
-    <row r="28" spans="1:59">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2551,11 +2569,11 @@
       <c r="BF28" s="2"/>
       <c r="BG28" s="2"/>
     </row>
-    <row r="29" spans="1:59">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2612,11 +2630,11 @@
       <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
     </row>
-    <row r="30" spans="1:59">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2673,7 +2691,7 @@
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2734,7 +2752,7 @@
       <c r="BF31" s="2"/>
       <c r="BG31" s="2"/>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2795,7 +2813,7 @@
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2856,7 +2874,7 @@
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2917,7 +2935,7 @@
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2978,7 +2996,7 @@
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3039,7 +3057,7 @@
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3100,7 +3118,7 @@
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3161,7 +3179,7 @@
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3222,7 +3240,7 @@
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3283,7 +3301,7 @@
       <c r="BF40" s="2"/>
       <c r="BG40" s="2"/>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3344,7 +3362,7 @@
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3405,7 +3423,7 @@
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3466,7 +3484,7 @@
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3527,7 +3545,7 @@
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3588,7 +3606,7 @@
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3649,7 +3667,7 @@
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3710,7 +3728,7 @@
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3771,7 +3789,7 @@
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3832,7 +3850,7 @@
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3893,7 +3911,7 @@
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3954,7 +3972,7 @@
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4015,7 +4033,7 @@
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4076,7 +4094,7 @@
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4137,7 +4155,7 @@
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4198,7 +4216,7 @@
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4259,7 +4277,7 @@
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4320,7 +4338,7 @@
       <c r="BF57" s="2"/>
       <c r="BG57" s="2"/>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4381,7 +4399,7 @@
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4442,7 +4460,7 @@
       <c r="BF59" s="2"/>
       <c r="BG59" s="2"/>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4503,7 +4521,7 @@
       <c r="BF60" s="2"/>
       <c r="BG60" s="2"/>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4564,7 +4582,7 @@
       <c r="BF61" s="2"/>
       <c r="BG61" s="2"/>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4625,7 +4643,7 @@
       <c r="BF62" s="2"/>
       <c r="BG62" s="2"/>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4686,7 +4704,7 @@
       <c r="BF63" s="2"/>
       <c r="BG63" s="2"/>
     </row>
-    <row r="64" spans="1:59">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4747,7 +4765,7 @@
       <c r="BF64" s="2"/>
       <c r="BG64" s="2"/>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4808,7 +4826,7 @@
       <c r="BF65" s="2"/>
       <c r="BG65" s="2"/>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4869,7 +4887,7 @@
       <c r="BF66" s="2"/>
       <c r="BG66" s="2"/>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4930,7 +4948,7 @@
       <c r="BF67" s="2"/>
       <c r="BG67" s="2"/>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4991,7 +5009,7 @@
       <c r="BF68" s="2"/>
       <c r="BG68" s="2"/>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5052,7 +5070,7 @@
       <c r="BF69" s="2"/>
       <c r="BG69" s="2"/>
     </row>
-    <row r="70" spans="1:59">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5113,7 +5131,7 @@
       <c r="BF70" s="2"/>
       <c r="BG70" s="2"/>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5174,7 +5192,7 @@
       <c r="BF71" s="2"/>
       <c r="BG71" s="2"/>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5235,7 +5253,7 @@
       <c r="BF72" s="2"/>
       <c r="BG72" s="2"/>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5296,7 +5314,7 @@
       <c r="BF73" s="2"/>
       <c r="BG73" s="2"/>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5357,7 +5375,7 @@
       <c r="BF74" s="2"/>
       <c r="BG74" s="2"/>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5418,7 +5436,7 @@
       <c r="BF75" s="2"/>
       <c r="BG75" s="2"/>
     </row>
-    <row r="76" spans="1:59">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5479,7 +5497,7 @@
       <c r="BF76" s="2"/>
       <c r="BG76" s="2"/>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5540,7 +5558,7 @@
       <c r="BF77" s="2"/>
       <c r="BG77" s="2"/>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5601,7 +5619,7 @@
       <c r="BF78" s="2"/>
       <c r="BG78" s="2"/>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5662,7 +5680,7 @@
       <c r="BF79" s="2"/>
       <c r="BG79" s="2"/>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5723,7 +5741,7 @@
       <c r="BF80" s="2"/>
       <c r="BG80" s="2"/>
     </row>
-    <row r="81" spans="1:59">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5784,7 +5802,7 @@
       <c r="BF81" s="2"/>
       <c r="BG81" s="2"/>
     </row>
-    <row r="82" spans="1:59">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5845,7 +5863,7 @@
       <c r="BF82" s="2"/>
       <c r="BG82" s="2"/>
     </row>
-    <row r="83" spans="1:59">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5906,7 +5924,7 @@
       <c r="BF83" s="2"/>
       <c r="BG83" s="2"/>
     </row>
-    <row r="84" spans="1:59">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5967,7 +5985,7 @@
       <c r="BF84" s="2"/>
       <c r="BG84" s="2"/>
     </row>
-    <row r="85" spans="1:59">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6028,7 +6046,7 @@
       <c r="BF85" s="2"/>
       <c r="BG85" s="2"/>
     </row>
-    <row r="86" spans="1:59">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6089,7 +6107,7 @@
       <c r="BF86" s="2"/>
       <c r="BG86" s="2"/>
     </row>
-    <row r="87" spans="1:59">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6150,7 +6168,7 @@
       <c r="BF87" s="2"/>
       <c r="BG87" s="2"/>
     </row>
-    <row r="88" spans="1:59">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6211,7 +6229,7 @@
       <c r="BF88" s="2"/>
       <c r="BG88" s="2"/>
     </row>
-    <row r="89" spans="1:59">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6272,7 +6290,7 @@
       <c r="BF89" s="2"/>
       <c r="BG89" s="2"/>
     </row>
-    <row r="90" spans="1:59">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6333,7 +6351,7 @@
       <c r="BF90" s="2"/>
       <c r="BG90" s="2"/>
     </row>
-    <row r="91" spans="1:59">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6394,7 +6412,7 @@
       <c r="BF91" s="2"/>
       <c r="BG91" s="2"/>
     </row>
-    <row r="92" spans="1:59">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6455,7 +6473,7 @@
       <c r="BF92" s="2"/>
       <c r="BG92" s="2"/>
     </row>
-    <row r="93" spans="1:59">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6516,7 +6534,7 @@
       <c r="BF93" s="2"/>
       <c r="BG93" s="2"/>
     </row>
-    <row r="94" spans="1:59">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6577,7 +6595,7 @@
       <c r="BF94" s="2"/>
       <c r="BG94" s="2"/>
     </row>
-    <row r="95" spans="1:59">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6638,7 +6656,7 @@
       <c r="BF95" s="2"/>
       <c r="BG95" s="2"/>
     </row>
-    <row r="96" spans="1:59">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6699,7 +6717,7 @@
       <c r="BF96" s="2"/>
       <c r="BG96" s="2"/>
     </row>
-    <row r="97" spans="1:59">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6760,7 +6778,7 @@
       <c r="BF97" s="2"/>
       <c r="BG97" s="2"/>
     </row>
-    <row r="98" spans="1:59">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6821,7 +6839,7 @@
       <c r="BF98" s="2"/>
       <c r="BG98" s="2"/>
     </row>
-    <row r="99" spans="1:59">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6882,7 +6900,7 @@
       <c r="BF99" s="2"/>
       <c r="BG99" s="2"/>
     </row>
-    <row r="100" spans="1:59">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6943,7 +6961,7 @@
       <c r="BF100" s="2"/>
       <c r="BG100" s="2"/>
     </row>
-    <row r="101" spans="1:59">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7004,7 +7022,7 @@
       <c r="BF101" s="2"/>
       <c r="BG101" s="2"/>
     </row>
-    <row r="102" spans="1:59">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7065,7 +7083,7 @@
       <c r="BF102" s="2"/>
       <c r="BG102" s="2"/>
     </row>
-    <row r="103" spans="1:59">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7126,7 +7144,7 @@
       <c r="BF103" s="2"/>
       <c r="BG103" s="2"/>
     </row>
-    <row r="104" spans="1:59">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7187,7 +7205,7 @@
       <c r="BF104" s="2"/>
       <c r="BG104" s="2"/>
     </row>
-    <row r="105" spans="1:59">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7248,7 +7266,7 @@
       <c r="BF105" s="2"/>
       <c r="BG105" s="2"/>
     </row>
-    <row r="106" spans="1:59">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7309,7 +7327,7 @@
       <c r="BF106" s="2"/>
       <c r="BG106" s="2"/>
     </row>
-    <row r="107" spans="1:59">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7370,7 +7388,7 @@
       <c r="BF107" s="2"/>
       <c r="BG107" s="2"/>
     </row>
-    <row r="108" spans="1:59">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7431,7 +7449,7 @@
       <c r="BF108" s="2"/>
       <c r="BG108" s="2"/>
     </row>
-    <row r="109" spans="1:59">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7492,7 +7510,7 @@
       <c r="BF109" s="2"/>
       <c r="BG109" s="2"/>
     </row>
-    <row r="110" spans="1:59">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7553,7 +7571,7 @@
       <c r="BF110" s="2"/>
       <c r="BG110" s="2"/>
     </row>
-    <row r="111" spans="1:59">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7614,7 +7632,7 @@
       <c r="BF111" s="2"/>
       <c r="BG111" s="2"/>
     </row>
-    <row r="112" spans="1:59">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7675,7 +7693,7 @@
       <c r="BF112" s="2"/>
       <c r="BG112" s="2"/>
     </row>
-    <row r="113" spans="1:59">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7736,7 +7754,7 @@
       <c r="BF113" s="2"/>
       <c r="BG113" s="2"/>
     </row>
-    <row r="114" spans="1:59">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7797,7 +7815,7 @@
       <c r="BF114" s="2"/>
       <c r="BG114" s="2"/>
     </row>
-    <row r="115" spans="1:59">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7858,7 +7876,7 @@
       <c r="BF115" s="2"/>
       <c r="BG115" s="2"/>
     </row>
-    <row r="116" spans="1:59">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7919,7 +7937,7 @@
       <c r="BF116" s="2"/>
       <c r="BG116" s="2"/>
     </row>
-    <row r="117" spans="1:59">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7980,7 +7998,7 @@
       <c r="BF117" s="2"/>
       <c r="BG117" s="2"/>
     </row>
-    <row r="118" spans="1:59">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8041,59 +8059,59 @@
       <c r="BF118" s="2"/>
       <c r="BG118" s="2"/>
     </row>
-    <row r="119" spans="1:59">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:59">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:59">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:59">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:59">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:59">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:59">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:59">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:59">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:59">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
@@ -8108,10 +8126,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>